--- a/choco/converters/validation/results/s2-03/sample_5/wikifonia_3442.xlsx
+++ b/choco/converters/validation/results/s2-03/sample_5/wikifonia_3442.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>original</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>C:min9</t>
-  </si>
-  <si>
-    <t>C:min(b7, 9)</t>
   </si>
   <si>
     <t>Cm7</t>
@@ -457,18 +454,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>1</v>
@@ -477,10 +472,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>1</v>
@@ -489,10 +484,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>1</v>
@@ -501,16 +496,16 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
